--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">The verbatim original latitude of the Location. The coordinate ellipsoid, geodeticDatum, or full Spatial Reference System (SRS) for these coordinates should be stored in verbatimSRS and the coordinate system should be stored in verbatimCoordinateSystem.</t>
   </si>
   <si>
-    <t xml:space="preserve">For this dataset we use the botton of the reach as the location.</t>
+    <t xml:space="preserve">For this dataset we use the botton of the reach or the middle of the reach depending on the program.</t>
   </si>
   <si>
     <t xml:space="preserve">Numeric</t>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">lattitude</t>
   </si>
   <si>
-    <t xml:space="preserve">BTMLAT</t>
+    <t xml:space="preserve">MIDLAT</t>
   </si>
   <si>
     <t xml:space="preserve">BottomReachLatitude</t>
@@ -1144,7 +1144,7 @@
     <t xml:space="preserve">longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">BTMLONG</t>
+    <t xml:space="preserve">MIDLONG</t>
   </si>
   <si>
     <t xml:space="preserve">BottomReachLongitude</t>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -6,11 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Record_level" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="location" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Measurment_or_Fact" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vocabulary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MeasurementOrFact" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="VariableCV" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Crosswalk" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="BLM" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AREMP" sheetId="8" state="visible" r:id="rId8"/>
@@ -78,6 +78,192 @@
     <t xml:space="preserve">measurementUnit</t>
   </si>
   <si>
+    <t xml:space="preserve">Channel Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctDry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Reach that is Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the reach that was dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Sign at Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver value from the provider dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent, Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of transects in the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Streambanks</t>
   </si>
   <si>
@@ -93,34 +279,103 @@
     <t xml:space="preserve">min: 0, max: 180</t>
   </si>
   <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
     <t xml:space="preserve">degrees</t>
   </si>
   <si>
     <t xml:space="preserve">180</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
+    <t xml:space="preserve">PctStab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
   </si>
   <si>
     <t xml:space="preserve">Water chemistry</t>
@@ -135,240 +390,6 @@
     <t xml:space="preserve">ppm</t>
   </si>
   <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Reach that is Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the reach that was dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Sign at Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver value from the provider dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absent, Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of Transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of transects in the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
     <t xml:space="preserve">pH</t>
   </si>
   <si>
@@ -399,18 +420,6 @@
     <t xml:space="preserve">65500</t>
   </si>
   <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">TotalNitrogen</t>
   </si>
   <si>
@@ -439,15 +448,6 @@
   </si>
   <si>
     <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
   </si>
   <si>
     <t xml:space="preserve">AREMPField</t>
@@ -888,37 +888,265 @@
     <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
   </si>
   <si>
+    <t xml:space="preserve">SNSTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctDru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaver_impacted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVR_SGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_ORDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAHLERORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankfullWidthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctSlope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSLOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACH_LENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProtocolReachLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACHLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWD_RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfdepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankfullHeightAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDEPTH_CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wettedWidth_ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTTD_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WettedWidthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XWIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_residual_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_PL_DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResPoolDepthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolDp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctReachInPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNK_AN</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
   </si>
   <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
+    <t xml:space="preserve">BNK_STBLTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_dmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFinesLessThan2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_SAFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool_fines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pect_fines_tran6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFinesLessThan6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedrock_pcnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_BDRK</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/5537</t>
@@ -933,225 +1161,9 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctSlope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResPoolDepthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolReachLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVR_SGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullHeightAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
     <t xml:space="preserve">COND</t>
   </si>
   <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
     <t xml:space="preserve">NTL</t>
   </si>
   <si>
@@ -1162,18 +1174,6 @@
   </si>
   <si>
     <t xml:space="preserve">TURB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WettedWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
   </si>
   <si>
     <t xml:space="preserve">...1</t>
@@ -6056,10 +6056,10 @@
         <v>1138</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
@@ -6164,7 +6164,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>1149</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
         <v>1149</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
         <v>1149</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s">
         <v>1149</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s">
         <v>1201</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
         <v>1234</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
         <v>1234</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="B157" t="s">
         <v>1407</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s">
         <v>1407</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B166" t="s">
         <v>1418</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B169" t="s">
         <v>1418</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B179" t="s">
         <v>1418</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="B194"/>
       <c r="C194" t="s">
@@ -9267,7 +9267,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -9372,7 +9372,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="C19" t="s">
         <v>1149</v>
@@ -10367,7 +10367,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C80" t="s">
         <v>1418</v>
@@ -10441,10 +10441,10 @@
         <v>1138</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -10452,7 +10452,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
         <v>1234</v>
@@ -10503,7 +10503,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
         <v>1418</v>
@@ -10718,7 +10718,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C101" t="s">
         <v>1418</v>
@@ -10939,7 +10939,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C114" t="s">
         <v>1201</v>
@@ -11194,7 +11194,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s">
         <v>1407</v>
@@ -11583,7 +11583,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C152" t="s">
         <v>1149</v>
@@ -11600,7 +11600,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C153" t="s">
         <v>1149</v>
@@ -11787,7 +11787,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="C164" t="s">
         <v>1234</v>
@@ -12278,7 +12278,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C193" t="s">
         <v>1407</v>
@@ -12361,7 +12361,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="C198" t="s">
         <v>1149</v>
@@ -13167,10 +13167,10 @@
         <v>1578</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H2"/>
     </row>
@@ -13191,10 +13191,10 @@
         <v>1581</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H3"/>
     </row>
@@ -13215,10 +13215,10 @@
         <v>1578</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H4"/>
     </row>
@@ -13239,10 +13239,10 @@
         <v>1578</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H5"/>
     </row>
@@ -13263,10 +13263,10 @@
         <v>1588</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H6"/>
     </row>
@@ -13275,22 +13275,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>1577</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H7"/>
     </row>
@@ -13307,10 +13307,10 @@
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H8"/>
     </row>
@@ -13331,10 +13331,10 @@
         <v>1578</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H9"/>
     </row>
@@ -13355,10 +13355,10 @@
         <v>1578</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H10"/>
     </row>
@@ -13379,10 +13379,10 @@
         <v>1578</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H11"/>
     </row>
@@ -13403,10 +13403,10 @@
         <v>1578</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H12"/>
     </row>
@@ -13427,10 +13427,10 @@
         <v>1599</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H13"/>
     </row>
@@ -13451,10 +13451,10 @@
         <v>1599</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H14"/>
     </row>
@@ -13475,10 +13475,10 @@
         <v>1604</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H15"/>
     </row>
@@ -13487,22 +13487,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>1577</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H16"/>
     </row>
@@ -13521,10 +13521,10 @@
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H17"/>
     </row>
@@ -13533,7 +13533,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
         <v>1607</v>
@@ -13542,13 +13542,13 @@
         <v>1577</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H18"/>
     </row>
@@ -13565,10 +13565,10 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H19"/>
     </row>
@@ -13585,10 +13585,10 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H20"/>
     </row>
@@ -13605,10 +13605,10 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H21"/>
     </row>
@@ -13629,10 +13629,10 @@
         <v>1578</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H22"/>
     </row>
@@ -13649,10 +13649,10 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H23"/>
     </row>
@@ -13673,10 +13673,10 @@
         <v>1578</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H24"/>
     </row>
@@ -13697,10 +13697,10 @@
         <v>1578</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H25"/>
     </row>
@@ -13709,7 +13709,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="C26" t="s">
         <v>1619</v>
@@ -13721,10 +13721,10 @@
         <v>1578</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H26"/>
     </row>
@@ -13733,22 +13733,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
         <v>1577</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H27"/>
     </row>
@@ -13765,10 +13765,10 @@
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H28"/>
     </row>
@@ -13785,10 +13785,10 @@
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H29"/>
     </row>
@@ -13805,10 +13805,10 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H30"/>
     </row>
@@ -13827,10 +13827,10 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
         <v>1623</v>
@@ -13851,10 +13851,10 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
         <v>1623</v>
@@ -13913,10 +13913,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H2"/>
     </row>
@@ -13935,10 +13935,10 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H3"/>
     </row>
@@ -13957,10 +13957,10 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H4"/>
     </row>
@@ -13979,10 +13979,10 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H5"/>
     </row>
@@ -14001,10 +14001,10 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H6"/>
     </row>
@@ -14023,10 +14023,10 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H7"/>
     </row>
@@ -14045,10 +14045,10 @@
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H8"/>
     </row>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>1642</v>
@@ -14087,10 +14087,10 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H10"/>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>1642</v>
@@ -14131,10 +14131,10 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H12"/>
     </row>
@@ -14153,10 +14153,10 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H13"/>
     </row>
@@ -14175,10 +14175,10 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H14"/>
     </row>
@@ -14197,10 +14197,10 @@
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H15"/>
     </row>
@@ -14219,10 +14219,10 @@
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H16"/>
     </row>
@@ -14241,10 +14241,10 @@
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H17"/>
     </row>
@@ -14263,7 +14263,7 @@
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>1642</v>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>1642</v>
@@ -14309,10 +14309,10 @@
         <v>594</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H20"/>
     </row>
@@ -14331,10 +14331,10 @@
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H21"/>
     </row>
@@ -14353,10 +14353,10 @@
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H22"/>
     </row>
@@ -14375,10 +14375,10 @@
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H23"/>
     </row>
@@ -14397,10 +14397,10 @@
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H24"/>
     </row>
@@ -14419,10 +14419,10 @@
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H25"/>
     </row>
@@ -14441,10 +14441,10 @@
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H26"/>
     </row>
@@ -14463,10 +14463,10 @@
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H27"/>
     </row>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>1642</v>
@@ -14505,10 +14505,10 @@
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H29"/>
     </row>
@@ -14527,10 +14527,10 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H30"/>
     </row>
@@ -14549,10 +14549,10 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H31"/>
     </row>
@@ -14571,10 +14571,10 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H32"/>
     </row>
@@ -14591,10 +14591,10 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H33"/>
     </row>
@@ -14613,10 +14613,10 @@
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H34"/>
     </row>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>1642</v>
@@ -14657,10 +14657,10 @@
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H36"/>
     </row>
@@ -14677,10 +14677,10 @@
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H37"/>
     </row>
@@ -14697,10 +14697,10 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H38"/>
     </row>
@@ -14717,10 +14717,10 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H39"/>
     </row>
@@ -14940,7 +14940,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -14951,20 +14951,16 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -14977,32 +14973,34 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -15015,35 +15013,35 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M4"/>
-      <c r="N4"/>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -15053,34 +15051,32 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -15093,34 +15089,32 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -15133,34 +15127,34 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -15173,34 +15167,32 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -15213,32 +15205,32 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -15251,34 +15243,32 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -15291,34 +15281,28 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>54</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -15331,34 +15315,32 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -15371,34 +15353,32 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H13"/>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -15411,34 +15391,32 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H14"/>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -15451,32 +15429,32 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
         <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" t="s">
-        <v>79</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -15489,30 +15467,34 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16"/>
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
       <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16"/>
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -15525,34 +15507,34 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" t="s">
-        <v>55</v>
-      </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -15565,34 +15547,34 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -15605,32 +15587,34 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="H19"/>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -15643,35 +15627,37 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
+      <c r="K20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="M20"/>
-      <c r="N20" t="s">
-        <v>97</v>
-      </c>
+      <c r="N20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -15681,32 +15667,34 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21"/>
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
@@ -15719,28 +15707,34 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -15753,32 +15747,34 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23"/>
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
@@ -15791,10 +15787,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>108</v>
@@ -15805,18 +15801,20 @@
       <c r="G24" t="s">
         <v>110</v>
       </c>
-      <c r="H24"/>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
         <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -15829,10 +15827,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
         <v>111</v>
@@ -15844,19 +15842,19 @@
         <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
@@ -15869,34 +15867,34 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
@@ -15909,34 +15907,32 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>118</v>
       </c>
       <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
         <v>119</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
         <v>120</v>
       </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>122</v>
-      </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -15949,32 +15945,34 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
         <v>124</v>
       </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" t="s">
-        <v>127</v>
-      </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
@@ -15987,32 +15985,34 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" t="s">
         <v>128</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
         <v>129</v>
       </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
         <v>130</v>
       </c>
-      <c r="H29"/>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" t="s">
-        <v>31</v>
-      </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -16025,32 +16025,32 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
         <v>132</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>133</v>
-      </c>
-      <c r="G30" t="s">
-        <v>134</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -16063,32 +16063,32 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
@@ -16101,32 +16101,32 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>138</v>
       </c>
       <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
         <v>139</v>
-      </c>
-      <c r="G32" t="s">
-        <v>140</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
         <v>30</v>
-      </c>
-      <c r="K32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -16666,7 +16666,7 @@
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
@@ -17190,7 +17190,7 @@
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -17315,7 +17315,7 @@
         <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -17326,15 +17326,11 @@
       <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32"/>
+      <c r="H32" t="s">
         <v>21</v>
       </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
+      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -17344,15 +17340,15 @@
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32"/>
+      <c r="Q32" t="s">
+        <v>286</v>
+      </c>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32" t="s">
         <v>18</v>
       </c>
-      <c r="U32" t="s">
-        <v>286</v>
-      </c>
+      <c r="U32"/>
       <c r="V32"/>
     </row>
     <row r="33">
@@ -17360,57 +17356,49 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" t="s">
-        <v>287</v>
-      </c>
-      <c r="K33" t="s">
-        <v>288</v>
-      </c>
+      <c r="J33"/>
+      <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
-      </c>
-      <c r="O33" t="s">
-        <v>291</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" t="s">
-        <v>292</v>
-      </c>
-      <c r="R33" t="s">
-        <v>293</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="R33"/>
       <c r="S33"/>
       <c r="T33" t="s">
-        <v>294</v>
-      </c>
-      <c r="U33" t="s">
-        <v>295</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="U33"/>
       <c r="V33"/>
     </row>
     <row r="34">
@@ -17418,47 +17406,41 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="n">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34" t="s">
-        <v>296</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K34"/>
       <c r="L34"/>
-      <c r="M34"/>
+      <c r="M34" t="s">
+        <v>292</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="Q34" t="s">
-        <v>297</v>
-      </c>
+      <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
-      <c r="T34" t="s">
-        <v>298</v>
-      </c>
-      <c r="U34" t="s">
-        <v>299</v>
-      </c>
+      <c r="T34"/>
+      <c r="U34"/>
       <c r="V34"/>
     </row>
     <row r="35">
@@ -17466,53 +17448,47 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s">
-        <v>22</v>
-      </c>
       <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35" t="s">
-        <v>300</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35"/>
-      <c r="O35" t="s">
-        <v>301</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N35" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35"/>
       <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35" t="s">
-        <v>302</v>
-      </c>
+      <c r="Q35" t="s">
+        <v>294</v>
+      </c>
+      <c r="R35"/>
       <c r="S35"/>
-      <c r="T35" t="s">
-        <v>37</v>
-      </c>
-      <c r="U35" t="s">
-        <v>300</v>
-      </c>
+      <c r="T35"/>
+      <c r="U35"/>
       <c r="V35"/>
     </row>
     <row r="36">
@@ -17520,58 +17496,56 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36"/>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="R36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="U36" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="V36"/>
     </row>
@@ -17580,52 +17554,58 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
         <v>47</v>
       </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37"/>
+        <v>28</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N37"/>
+        <v>306</v>
+      </c>
+      <c r="N37" t="s">
+        <v>307</v>
+      </c>
       <c r="O37" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P37"/>
-      <c r="Q37"/>
+      <c r="Q37" t="s">
+        <v>309</v>
+      </c>
       <c r="R37" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="V37"/>
     </row>
@@ -17634,58 +17614,52 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
         <v>50</v>
       </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
+      <c r="G38"/>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
-      </c>
-      <c r="O38" t="s">
-        <v>309</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>310</v>
-      </c>
-      <c r="R38" t="s">
-        <v>306</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="R38"/>
       <c r="S38"/>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>316</v>
       </c>
       <c r="U38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V38"/>
     </row>
@@ -17694,55 +17668,45 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
-      </c>
-      <c r="K39" t="s">
-        <v>313</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="K39"/>
       <c r="L39"/>
-      <c r="M39" t="s">
-        <v>314</v>
-      </c>
-      <c r="N39" t="s">
-        <v>315</v>
-      </c>
-      <c r="O39" t="s">
-        <v>316</v>
-      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
       <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39" t="s">
-        <v>317</v>
-      </c>
+      <c r="Q39" t="s">
+        <v>318</v>
+      </c>
+      <c r="R39"/>
       <c r="S39"/>
       <c r="T39" t="s">
-        <v>318</v>
-      </c>
-      <c r="U39" t="s">
         <v>319</v>
       </c>
+      <c r="U39"/>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -17750,120 +17714,84 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="n">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G40"/>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s">
         <v>320</v>
       </c>
-      <c r="K40" t="s">
-        <v>313</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" t="s">
         <v>321</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>322</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40" t="s">
         <v>323</v>
       </c>
-      <c r="O40" t="s">
-        <v>316</v>
-      </c>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40" t="s">
-        <v>317</v>
-      </c>
-      <c r="S40" t="n">
-        <v>88</v>
-      </c>
-      <c r="T40" t="s">
-        <v>324</v>
-      </c>
-      <c r="U40" t="s">
-        <v>319</v>
-      </c>
-      <c r="V40" t="s">
-        <v>325</v>
-      </c>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" t="s">
-        <v>326</v>
-      </c>
-      <c r="K41" t="s">
-        <v>300</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
       <c r="L41"/>
-      <c r="M41" t="s">
-        <v>327</v>
-      </c>
-      <c r="N41" t="s">
-        <v>328</v>
-      </c>
-      <c r="O41" t="s">
-        <v>329</v>
-      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>330</v>
-      </c>
-      <c r="R41" t="s">
-        <v>302</v>
-      </c>
+      <c r="Q41"/>
+      <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="V41"/>
     </row>
@@ -17872,53 +17800,41 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" t="s">
-        <v>53</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G42"/>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" t="s">
-        <v>331</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J42"/>
       <c r="K42" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L42"/>
-      <c r="M42" t="s">
-        <v>333</v>
-      </c>
+      <c r="M42"/>
       <c r="N42"/>
-      <c r="O42" t="s">
-        <v>329</v>
-      </c>
+      <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42" t="s">
-        <v>334</v>
-      </c>
-      <c r="U42" t="s">
-        <v>329</v>
-      </c>
+      <c r="T42"/>
+      <c r="U42"/>
       <c r="V42"/>
     </row>
     <row r="43">
@@ -17926,55 +17842,43 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G43"/>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" t="s">
-        <v>335</v>
-      </c>
-      <c r="K43" t="s">
-        <v>300</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>336</v>
-      </c>
-      <c r="N43" t="s">
-        <v>337</v>
-      </c>
-      <c r="O43" t="s">
-        <v>303</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43" t="s">
-        <v>302</v>
-      </c>
+      <c r="Q43" t="s">
+        <v>327</v>
+      </c>
+      <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
-      <c r="U43" t="s">
-        <v>300</v>
-      </c>
+      <c r="U43"/>
       <c r="V43"/>
     </row>
     <row r="44">
@@ -17982,49 +17886,47 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" t="s">
-        <v>53</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44"/>
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>338</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44" t="s">
         <v>329</v>
       </c>
+      <c r="N44" t="s">
+        <v>330</v>
+      </c>
+      <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
+      <c r="Q44" t="s">
+        <v>331</v>
+      </c>
       <c r="R44"/>
       <c r="S44"/>
-      <c r="T44" t="s">
-        <v>339</v>
-      </c>
-      <c r="U44" t="s">
-        <v>329</v>
-      </c>
+      <c r="T44"/>
+      <c r="U44"/>
       <c r="V44"/>
     </row>
     <row r="45">
@@ -18032,52 +17934,54 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
         <v>75</v>
-      </c>
-      <c r="E45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" t="s">
-        <v>77</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N45" t="s">
-        <v>343</v>
-      </c>
-      <c r="O45"/>
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>336</v>
+      </c>
       <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>344</v>
-      </c>
-      <c r="R45"/>
+      <c r="Q45"/>
+      <c r="R45" t="s">
+        <v>337</v>
+      </c>
       <c r="S45"/>
       <c r="T45" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="U45" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="V45"/>
     </row>
@@ -18086,78 +17990,98 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46"/>
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
       <c r="H46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s">
+        <v>341</v>
+      </c>
       <c r="M46" t="s">
-        <v>346</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46"/>
+        <v>342</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>336</v>
+      </c>
       <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>347</v>
-      </c>
-      <c r="R46"/>
-      <c r="S46"/>
+      <c r="Q46"/>
+      <c r="R46" t="s">
+        <v>337</v>
+      </c>
+      <c r="S46" t="n">
+        <v>88</v>
+      </c>
       <c r="T46" t="s">
-        <v>81</v>
-      </c>
-      <c r="U46"/>
-      <c r="V46"/>
+        <v>344</v>
+      </c>
+      <c r="U46" t="s">
+        <v>339</v>
+      </c>
+      <c r="V46" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -18166,10 +18090,10 @@
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V47"/>
     </row>
@@ -18178,49 +18102,47 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-      <c r="E48" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
-      </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>351</v>
-      </c>
-      <c r="N48" t="s">
-        <v>352</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48" t="s">
-        <v>353</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>354</v>
-      </c>
-      <c r="U48"/>
+        <v>349</v>
+      </c>
+      <c r="U48" t="s">
+        <v>350</v>
+      </c>
       <c r="V48"/>
     </row>
     <row r="49">
@@ -18228,45 +18150,53 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
         <v>91</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>92</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>93</v>
       </c>
-      <c r="G49"/>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" t="s">
-        <v>355</v>
-      </c>
-      <c r="K49"/>
+        <v>94</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
       <c r="L49"/>
-      <c r="M49"/>
+      <c r="M49" t="s">
+        <v>90</v>
+      </c>
       <c r="N49"/>
-      <c r="O49"/>
+      <c r="O49" t="s">
+        <v>352</v>
+      </c>
       <c r="P49"/>
-      <c r="Q49" t="s">
-        <v>356</v>
-      </c>
-      <c r="R49"/>
+      <c r="Q49"/>
+      <c r="R49" t="s">
+        <v>353</v>
+      </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>357</v>
-      </c>
-      <c r="U49"/>
+        <v>90</v>
+      </c>
+      <c r="U49" t="s">
+        <v>351</v>
+      </c>
       <c r="V49"/>
     </row>
     <row r="50">
@@ -18274,41 +18204,59 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
         <v>94</v>
       </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="J50" t="s">
         <v>96</v>
       </c>
-      <c r="G50"/>
-      <c r="H50" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50"/>
-      <c r="J50" t="s">
-        <v>358</v>
-      </c>
-      <c r="K50"/>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>359</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>96</v>
+      </c>
+      <c r="N50" t="s">
+        <v>96</v>
+      </c>
+      <c r="O50" t="s">
+        <v>354</v>
+      </c>
       <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
+      <c r="Q50" t="s">
+        <v>355</v>
+      </c>
+      <c r="R50" t="s">
+        <v>353</v>
+      </c>
       <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
+      <c r="T50" t="s">
+        <v>96</v>
+      </c>
+      <c r="U50" t="s">
+        <v>351</v>
+      </c>
       <c r="V50"/>
     </row>
     <row r="51">
@@ -18316,47 +18264,53 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51"/>
+        <v>101</v>
+      </c>
+      <c r="G51" t="s">
+        <v>93</v>
+      </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" t="s">
-        <v>360</v>
-      </c>
-      <c r="K51"/>
+        <v>94</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51" t="s">
+        <v>351</v>
+      </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>361</v>
-      </c>
-      <c r="N51" t="s">
-        <v>362</v>
-      </c>
-      <c r="O51"/>
+        <v>99</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51" t="s">
+        <v>352</v>
+      </c>
       <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>363</v>
-      </c>
-      <c r="R51"/>
+      <c r="Q51"/>
+      <c r="R51" t="s">
+        <v>353</v>
+      </c>
       <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
+      <c r="T51" t="s">
+        <v>99</v>
+      </c>
+      <c r="U51" t="s">
+        <v>351</v>
+      </c>
       <c r="V51"/>
     </row>
     <row r="52">
@@ -18364,36 +18318,56 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>351</v>
+      </c>
       <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
+      <c r="M52" t="s">
+        <v>357</v>
+      </c>
+      <c r="N52" t="s">
+        <v>358</v>
+      </c>
+      <c r="O52" t="s">
+        <v>359</v>
+      </c>
       <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
+      <c r="Q52" t="s">
+        <v>360</v>
+      </c>
+      <c r="R52" t="s">
+        <v>353</v>
+      </c>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="V52"/>
     </row>
@@ -18402,41 +18376,53 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53"/>
+        <v>107</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>107</v>
-      </c>
-      <c r="J53"/>
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>361</v>
+      </c>
       <c r="K53" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L53"/>
-      <c r="M53"/>
+      <c r="M53" t="s">
+        <v>363</v>
+      </c>
       <c r="N53"/>
-      <c r="O53"/>
+      <c r="O53" t="s">
+        <v>359</v>
+      </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
+      <c r="T53" t="s">
+        <v>364</v>
+      </c>
+      <c r="U53" t="s">
+        <v>359</v>
+      </c>
       <c r="V53"/>
     </row>
     <row r="54">
@@ -18444,10 +18430,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
@@ -18458,29 +18444,41 @@
       <c r="F54" t="s">
         <v>110</v>
       </c>
-      <c r="G54"/>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54"/>
-      <c r="K54"/>
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>351</v>
+      </c>
       <c r="L54"/>
       <c r="M54" t="s">
         <v>366</v>
       </c>
-      <c r="N54"/>
-      <c r="O54"/>
+      <c r="N54" t="s">
+        <v>367</v>
+      </c>
+      <c r="O54" t="s">
+        <v>354</v>
+      </c>
       <c r="P54"/>
-      <c r="Q54" t="s">
-        <v>367</v>
-      </c>
-      <c r="R54"/>
+      <c r="Q54"/>
+      <c r="R54" t="s">
+        <v>353</v>
+      </c>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="U54"/>
+      <c r="U54" t="s">
+        <v>351</v>
+      </c>
       <c r="V54"/>
     </row>
     <row r="55">
@@ -18488,10 +18486,10 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>111</v>
@@ -18503,34 +18501,34 @@
         <v>113</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55" t="s">
         <v>368</v>
       </c>
-      <c r="K55" t="s">
-        <v>300</v>
-      </c>
-      <c r="L55"/>
-      <c r="M55"/>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="P55"/>
-      <c r="Q55" t="s">
-        <v>369</v>
-      </c>
+      <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
+      <c r="T55" t="s">
+        <v>369</v>
+      </c>
+      <c r="U55" t="s">
+        <v>359</v>
+      </c>
       <c r="V55"/>
     </row>
     <row r="56">
@@ -18538,45 +18536,49 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C56" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G56" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" t="s">
+        <v>351</v>
+      </c>
       <c r="L56"/>
-      <c r="M56" t="s">
-        <v>114</v>
-      </c>
+      <c r="M56"/>
       <c r="N56"/>
-      <c r="O56"/>
+      <c r="O56" t="s">
+        <v>352</v>
+      </c>
       <c r="P56"/>
-      <c r="Q56"/>
+      <c r="Q56" t="s">
+        <v>371</v>
+      </c>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56"/>
-      <c r="U56" t="s">
-        <v>299</v>
-      </c>
+      <c r="U56"/>
       <c r="V56"/>
     </row>
     <row r="57">
@@ -18584,45 +18586,47 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
         <v>118</v>
       </c>
       <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
         <v>119</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57"/>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
         <v>120</v>
       </c>
-      <c r="G57" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>122</v>
-      </c>
       <c r="J57"/>
-      <c r="K57"/>
+      <c r="K57" t="s">
+        <v>372</v>
+      </c>
       <c r="L57"/>
-      <c r="M57" t="s">
-        <v>118</v>
-      </c>
+      <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
+      <c r="T57" t="s">
+        <v>374</v>
+      </c>
+      <c r="U57" t="s">
+        <v>375</v>
+      </c>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -18630,47 +18634,45 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58"/>
+        <v>122</v>
+      </c>
+      <c r="G58" t="s">
+        <v>123</v>
+      </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" t="s">
-        <v>124</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>371</v>
-      </c>
-      <c r="N58" t="s">
-        <v>124</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" t="s">
-        <v>372</v>
-      </c>
+      <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="U58"/>
+      <c r="U58" t="s">
+        <v>375</v>
+      </c>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -18678,38 +18680,40 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C59" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" t="s">
         <v>128</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
         <v>129</v>
-      </c>
-      <c r="F59" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" t="s">
-        <v>131</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
@@ -18722,38 +18726,38 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C60" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
         <v>132</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>133</v>
-      </c>
-      <c r="F60" t="s">
-        <v>134</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -18766,38 +18770,38 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C61" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="R61"/>
       <c r="S61"/>
@@ -18810,38 +18814,34 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
         <v>138</v>
       </c>
       <c r="E62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
         <v>139</v>
-      </c>
-      <c r="F62" t="s">
-        <v>140</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" t="s">
-        <v>377</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62" t="s">
-        <v>378</v>
-      </c>
-      <c r="N62" t="s">
         <v>379</v>
       </c>
+      <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62" t="s">
@@ -18910,19 +18910,19 @@
         <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -18938,19 +18938,19 @@
         <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
         <v>31</v>
@@ -18968,19 +18968,19 @@
         <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
         <v>49</v>
@@ -18998,19 +18998,19 @@
         <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
         <v>27</v>
@@ -19028,19 +19028,19 @@
         <v>397</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>398</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -19056,19 +19056,19 @@
         <v>400</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
         <v>22</v>
@@ -19086,19 +19086,19 @@
         <v>402</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>403</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
         <v>23</v>
@@ -19116,19 +19116,19 @@
         <v>405</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>406</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
         <v>43</v>
@@ -19146,19 +19146,19 @@
         <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>406</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I10" t="n">
         <v>44</v>
@@ -19176,19 +19176,19 @@
         <v>410</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
         <v>24</v>
@@ -19206,10 +19206,10 @@
         <v>412</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>413</v>
@@ -19218,7 +19218,7 @@
         <v>414</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I12" t="n">
         <v>53</v>
@@ -19236,19 +19236,19 @@
         <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I13" t="n">
         <v>37</v>
@@ -19266,19 +19266,19 @@
         <v>418</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I14" t="n">
         <v>38</v>
@@ -19296,19 +19296,19 @@
         <v>420</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
         <v>39</v>
@@ -19326,19 +19326,19 @@
         <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I16" t="n">
         <v>25</v>
@@ -19356,10 +19356,10 @@
         <v>424</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>423</v>
@@ -19368,7 +19368,7 @@
         <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I17" t="n">
         <v>26</v>
@@ -19380,25 +19380,25 @@
         <v>390</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>426</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I18" t="n">
         <v>101</v>
@@ -19416,19 +19416,19 @@
         <v>428</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I19" t="n">
         <v>123</v>
@@ -19446,19 +19446,19 @@
         <v>430</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
         <v>124</v>
@@ -19476,19 +19476,19 @@
         <v>432</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
         <v>63</v>
@@ -19506,19 +19506,19 @@
         <v>434</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I22" t="n">
         <v>61</v>
@@ -19536,19 +19536,19 @@
         <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
         <v>62</v>
@@ -19566,19 +19566,19 @@
         <v>438</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>406</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I24" t="n">
         <v>29</v>
@@ -19596,19 +19596,19 @@
         <v>440</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>406</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I25" t="n">
         <v>30</v>
@@ -19626,19 +19626,19 @@
         <v>442</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>406</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I26" t="n">
         <v>45</v>
@@ -19656,19 +19656,19 @@
         <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
         <v>406</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I27" t="n">
         <v>46</v>
@@ -19686,19 +19686,19 @@
         <v>446</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I28" t="n">
         <v>67</v>
@@ -19716,19 +19716,19 @@
         <v>448</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I29" t="n">
         <v>54</v>
@@ -19749,16 +19749,16 @@
         <v>452</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I30" t="n">
         <v>324</v>
@@ -19779,16 +19779,16 @@
         <v>452</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I31" t="n">
         <v>325</v>
@@ -19809,16 +19809,16 @@
         <v>452</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>457</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -19837,10 +19837,10 @@
         <v>452</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>460</v>
@@ -19865,10 +19865,10 @@
         <v>452</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>460</v>
@@ -19893,10 +19893,10 @@
         <v>452</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>460</v>
@@ -19921,13 +19921,13 @@
         <v>468</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
         <v>461</v>
@@ -19949,13 +19949,13 @@
         <v>452</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
         <v>461</v>
@@ -19977,13 +19977,13 @@
         <v>468</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
         <v>461</v>
@@ -20005,13 +20005,13 @@
         <v>452</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
         <v>461</v>
@@ -20033,13 +20033,13 @@
         <v>452</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
         <v>461</v>
@@ -20061,7 +20061,7 @@
         <v>468</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>479</v>
@@ -20070,7 +20070,7 @@
         <v>480</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I41" t="n">
         <v>236</v>
@@ -20094,13 +20094,13 @@
         <v>483</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I42" t="n">
         <v>231</v>
@@ -20118,7 +20118,7 @@
         <v>485</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
         <v>483</v>
@@ -20127,10 +20127,10 @@
         <v>486</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I43" t="n">
         <v>232</v>
@@ -20151,16 +20151,16 @@
         <v>452</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>489</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I44" t="n">
         <v>234</v>
@@ -20181,16 +20181,16 @@
         <v>452</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I45" t="n">
         <v>237</v>
@@ -20208,19 +20208,19 @@
         <v>493</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I46" t="n">
         <v>238</v>
@@ -20238,19 +20238,19 @@
         <v>495</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>496</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>497</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I47" t="n">
         <v>242</v>
@@ -20268,10 +20268,10 @@
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
         <v>500</v>
@@ -20280,7 +20280,7 @@
         <v>501</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I48" t="n">
         <v>241</v>
@@ -20292,7 +20292,7 @@
         <v>502</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>503</v>
@@ -20304,13 +20304,13 @@
         <v>504</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I49" t="n">
         <v>221</v>
@@ -20328,19 +20328,19 @@
         <v>506</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>504</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I50" t="n">
         <v>222</v>
@@ -20352,7 +20352,7 @@
         <v>502</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
         <v>507</v>
@@ -20364,13 +20364,13 @@
         <v>504</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I51" t="n">
         <v>223</v>
@@ -20394,13 +20394,13 @@
         <v>504</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I52" t="n">
         <v>224</v>
@@ -20412,7 +20412,7 @@
         <v>502</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
         <v>510</v>
@@ -20424,13 +20424,13 @@
         <v>511</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I53" t="n">
         <v>225</v>
@@ -20448,19 +20448,19 @@
         <v>513</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
         <v>511</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I54" t="n">
         <v>226</v>
@@ -20472,7 +20472,7 @@
         <v>502</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
         <v>514</v>
@@ -20484,13 +20484,13 @@
         <v>516</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I55" t="n">
         <v>227</v>
@@ -20514,13 +20514,13 @@
         <v>519</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I56" t="n">
         <v>219</v>
@@ -20532,7 +20532,7 @@
         <v>502</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
         <v>520</v>
@@ -20541,16 +20541,16 @@
         <v>468</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I57" t="n">
         <v>229</v>
@@ -20562,7 +20562,7 @@
         <v>521</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C58" t="s">
         <v>522</v>
@@ -20571,13 +20571,13 @@
         <v>452</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
         <v>523</v>
@@ -20601,13 +20601,13 @@
         <v>452</v>
       </c>
       <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
         <v>30</v>
       </c>
-      <c r="F59" t="s">
-        <v>25</v>
-      </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
         <v>523</v>
@@ -20634,10 +20634,10 @@
         <v>528</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s">
         <v>523</v>
@@ -20664,13 +20664,13 @@
         <v>531</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I61" t="n">
         <v>183</v>
@@ -20694,13 +20694,13 @@
         <v>534</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I62" t="n">
         <v>184</v>
@@ -20721,13 +20721,13 @@
         <v>468</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
         <v>537</v>
@@ -20742,7 +20742,7 @@
         <v>521</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
         <v>538</v>
@@ -20751,13 +20751,13 @@
         <v>468</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
         <v>537</v>
@@ -20772,7 +20772,7 @@
         <v>521</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>539</v>
@@ -20781,13 +20781,13 @@
         <v>452</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s">
         <v>523</v>
@@ -20802,7 +20802,7 @@
         <v>521</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
         <v>540</v>
@@ -20811,13 +20811,13 @@
         <v>452</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
         <v>523</v>
@@ -20832,7 +20832,7 @@
         <v>521</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>541</v>
@@ -20841,13 +20841,13 @@
         <v>452</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s">
         <v>523</v>
@@ -20871,13 +20871,13 @@
         <v>452</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s">
         <v>523</v>
@@ -20901,13 +20901,13 @@
         <v>468</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
         <v>546</v>
@@ -20922,7 +20922,7 @@
         <v>521</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
         <v>547</v>
@@ -20931,13 +20931,13 @@
         <v>468</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
         <v>546</v>
@@ -20961,16 +20961,16 @@
         <v>452</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I71" t="n">
         <v>133</v>
@@ -20985,22 +20985,22 @@
         <v>550</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
         <v>452</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I72" t="n">
         <v>127</v>
@@ -21021,16 +21021,16 @@
         <v>452</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I73" t="n">
         <v>134</v>
@@ -21051,16 +21051,16 @@
         <v>452</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I74" t="n">
         <v>135</v>
@@ -21081,16 +21081,16 @@
         <v>452</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I75" t="n">
         <v>136</v>
@@ -21111,16 +21111,16 @@
         <v>452</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H76" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I76" t="n">
         <v>137</v>
@@ -21141,16 +21141,16 @@
         <v>452</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I77" t="n">
         <v>138</v>
@@ -21171,16 +21171,16 @@
         <v>468</v>
       </c>
       <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
         <v>30</v>
       </c>
-      <c r="F78" t="s">
-        <v>25</v>
-      </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I78" t="n">
         <v>69</v>
@@ -21201,16 +21201,16 @@
         <v>468</v>
       </c>
       <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
         <v>30</v>
       </c>
-      <c r="F79" t="s">
-        <v>25</v>
-      </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I79" t="n">
         <v>85</v>
@@ -21231,7 +21231,7 @@
         <v>468</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
         <v>567</v>
@@ -21240,7 +21240,7 @@
         <v>568</v>
       </c>
       <c r="H80" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I80" t="n">
         <v>116</v>
@@ -21261,16 +21261,16 @@
         <v>452</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>571</v>
       </c>
       <c r="H81" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I81" t="n">
         <v>117</v>
@@ -21282,7 +21282,7 @@
         <v>521</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
         <v>572</v>
@@ -21291,16 +21291,16 @@
         <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I82" t="n">
         <v>126</v>
@@ -21321,16 +21321,16 @@
         <v>452</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I83" t="n">
         <v>88</v>
@@ -21342,25 +21342,25 @@
         <v>521</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
         <v>575</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
         <v>30</v>
       </c>
-      <c r="F84" t="s">
-        <v>25</v>
-      </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H84" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I84" t="n">
         <v>89</v>
@@ -21372,7 +21372,7 @@
         <v>521</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
         <v>576</v>
@@ -21381,16 +21381,16 @@
         <v>468</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I85" t="n">
         <v>99</v>
@@ -21408,19 +21408,19 @@
         <v>579</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
         <v>30</v>
       </c>
-      <c r="F86" t="s">
-        <v>25</v>
-      </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H86" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I86" t="n">
         <v>65</v>
@@ -21438,19 +21438,19 @@
         <v>581</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
         <v>30</v>
       </c>
-      <c r="F87" t="s">
-        <v>25</v>
-      </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H87" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I87" t="n">
         <v>70</v>
@@ -21468,16 +21468,16 @@
         <v>583</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
         <v>30</v>
       </c>
-      <c r="F88" t="s">
-        <v>25</v>
-      </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H88" t="s">
         <v>461</v>
@@ -21498,13 +21498,13 @@
         <v>585</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G89" t="s">
         <v>586</v>
@@ -21528,19 +21528,19 @@
         <v>588</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>589</v>
       </c>
       <c r="H90" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I90" t="n">
         <v>66</v>
@@ -21558,19 +21558,19 @@
         <v>591</v>
       </c>
       <c r="D91" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I91" t="n">
         <v>98</v>
@@ -21588,10 +21588,10 @@
         <v>593</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
         <v>594</v>
@@ -21600,7 +21600,7 @@
         <v>595</v>
       </c>
       <c r="H92" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I92" t="n">
         <v>121</v>
@@ -21618,10 +21618,10 @@
         <v>597</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
         <v>479</v>
@@ -21630,7 +21630,7 @@
         <v>598</v>
       </c>
       <c r="H93" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I93" t="n">
         <v>100</v>
@@ -21651,7 +21651,7 @@
         <v>468</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
         <v>479</v>
@@ -21660,7 +21660,7 @@
         <v>480</v>
       </c>
       <c r="H94" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I94" t="n">
         <v>122</v>
@@ -21678,19 +21678,19 @@
         <v>602</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s">
         <v>398</v>
       </c>
       <c r="F95" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I95" t="n">
         <v>344</v>
@@ -21708,19 +21708,19 @@
         <v>604</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I96" t="n">
         <v>345</v>
@@ -22216,7 +22216,7 @@
         <v>619</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -22659,7 +22659,7 @@
         <v>665</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -22725,7 +22725,7 @@
         <v>665</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -22742,7 +22742,7 @@
         <v>665</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -22756,7 +22756,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
         <v>673</v>
@@ -22771,10 +22771,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -22788,10 +22788,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
         <v>674</v>
@@ -22822,10 +22822,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -22839,7 +22839,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
         <v>675</v>
@@ -22854,7 +22854,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
         <v>676</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>677</v>
@@ -23259,16 +23259,16 @@
         <v>706</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I97" t="n">
         <v>243</v>
@@ -23288,13 +23288,13 @@
         <v>709</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
         <v>710</v>
@@ -23317,13 +23317,13 @@
         <v>713</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
         <v>714</v>
@@ -23346,10 +23346,10 @@
         <v>717</v>
       </c>
       <c r="E100" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
@@ -23373,13 +23373,13 @@
         <v>720</v>
       </c>
       <c r="E101" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
         <v>714</v>
@@ -23411,7 +23411,7 @@
         <v>725</v>
       </c>
       <c r="H102" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I102" t="n">
         <v>248</v>
@@ -23440,7 +23440,7 @@
         <v>730</v>
       </c>
       <c r="H103" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I103" t="n">
         <v>249</v>
@@ -24130,7 +24130,7 @@
         <v>725</v>
       </c>
       <c r="H131" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I131" t="n">
         <v>288</v>
@@ -24157,7 +24157,7 @@
         <v>730</v>
       </c>
       <c r="H132" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I132" t="n">
         <v>290</v>
@@ -24184,7 +24184,7 @@
         <v>725</v>
       </c>
       <c r="H133" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I133" t="n">
         <v>294</v>
@@ -24211,7 +24211,7 @@
         <v>730</v>
       </c>
       <c r="H134" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I134" t="n">
         <v>295</v>
@@ -24238,7 +24238,7 @@
         <v>725</v>
       </c>
       <c r="H135" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I135" t="n">
         <v>296</v>
@@ -24265,7 +24265,7 @@
         <v>730</v>
       </c>
       <c r="H136" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I136" t="n">
         <v>297</v>
@@ -24292,7 +24292,7 @@
         <v>725</v>
       </c>
       <c r="H137" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I137" t="n">
         <v>298</v>
@@ -24319,7 +24319,7 @@
         <v>730</v>
       </c>
       <c r="H138" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I138" t="n">
         <v>299</v>
@@ -24346,7 +24346,7 @@
         <v>725</v>
       </c>
       <c r="H139" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I139" t="n">
         <v>300</v>
@@ -24373,7 +24373,7 @@
         <v>730</v>
       </c>
       <c r="H140" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I140" t="n">
         <v>301</v>
@@ -24400,7 +24400,7 @@
         <v>725</v>
       </c>
       <c r="H141" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I141" t="n">
         <v>302</v>
@@ -24427,7 +24427,7 @@
         <v>730</v>
       </c>
       <c r="H142" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I142" t="n">
         <v>303</v>
@@ -24454,7 +24454,7 @@
         <v>725</v>
       </c>
       <c r="H143" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I143" t="n">
         <v>304</v>
@@ -24481,7 +24481,7 @@
         <v>730</v>
       </c>
       <c r="H144" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I144" t="n">
         <v>305</v>
@@ -24508,7 +24508,7 @@
         <v>725</v>
       </c>
       <c r="H145" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I145" t="n">
         <v>306</v>
@@ -24535,7 +24535,7 @@
         <v>730</v>
       </c>
       <c r="H146" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I146" t="n">
         <v>308</v>
@@ -24562,7 +24562,7 @@
         <v>725</v>
       </c>
       <c r="H147" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I147" t="n">
         <v>309</v>
@@ -24589,7 +24589,7 @@
         <v>730</v>
       </c>
       <c r="H148" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I148" t="n">
         <v>310</v>
@@ -24616,7 +24616,7 @@
         <v>725</v>
       </c>
       <c r="H149" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I149" t="n">
         <v>311</v>
@@ -24643,7 +24643,7 @@
         <v>730</v>
       </c>
       <c r="H150" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I150" t="n">
         <v>313</v>
@@ -24670,7 +24670,7 @@
         <v>725</v>
       </c>
       <c r="H151" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I151" t="n">
         <v>314</v>
@@ -24697,7 +24697,7 @@
         <v>730</v>
       </c>
       <c r="H152" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I152" t="n">
         <v>315</v>
@@ -24724,7 +24724,7 @@
         <v>725</v>
       </c>
       <c r="H153" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I153" t="n">
         <v>316</v>
@@ -24751,7 +24751,7 @@
         <v>730</v>
       </c>
       <c r="H154" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I154" t="n">
         <v>317</v>
@@ -24778,7 +24778,7 @@
         <v>725</v>
       </c>
       <c r="H155" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I155" t="n">
         <v>318</v>
@@ -24805,7 +24805,7 @@
         <v>730</v>
       </c>
       <c r="H156" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I156" t="n">
         <v>319</v>
@@ -24994,10 +24994,10 @@
         <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
@@ -25014,7 +25014,7 @@
         <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>908</v>
@@ -25187,7 +25187,7 @@
         <v>934</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>19</v>
@@ -25247,7 +25247,7 @@
         <v>941</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
@@ -25267,7 +25267,7 @@
         <v>944</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
@@ -25287,7 +25287,7 @@
         <v>946</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>39</v>
@@ -25307,7 +25307,7 @@
         <v>947</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
         <v>33</v>
@@ -25423,7 +25423,7 @@
         <v>966</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F29" t="n">
         <v>59</v>
@@ -25443,7 +25443,7 @@
         <v>969</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F30" t="n">
         <v>60</v>
@@ -25471,16 +25471,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>975</v>
@@ -25491,19 +25491,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
         <v>976</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F33" t="n">
         <v>65</v>
@@ -25511,19 +25511,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F34" t="n">
         <v>67</v>
@@ -25531,13 +25531,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>977</v>
@@ -25551,13 +25551,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>978</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>979</v>
@@ -25571,19 +25571,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D37" t="s">
         <v>981</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F37" t="n">
         <v>90</v>
@@ -25591,7 +25591,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>982</v>
@@ -25611,13 +25611,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
         <v>985</v>
@@ -25631,13 +25631,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>986</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
         <v>987</v>
@@ -25651,7 +25651,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>988</v>
@@ -25671,19 +25671,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>991</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F42" t="n">
         <v>144</v>
@@ -25691,13 +25691,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -25707,13 +25707,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -25723,13 +25723,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="D45" t="s">
         <v>992</v>
@@ -25743,13 +25743,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -25759,10 +25759,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>349</v>
@@ -25779,19 +25779,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>994</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F48" t="n">
         <v>126</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
         <v>995</v>
@@ -25871,7 +25871,7 @@
         <v>1009</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F52"/>
     </row>
@@ -25889,7 +25889,7 @@
         <v>1012</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F53"/>
     </row>
@@ -25907,7 +25907,7 @@
         <v>1015</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F54"/>
     </row>
@@ -25925,7 +25925,7 @@
         <v>1018</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F55"/>
     </row>
@@ -25943,7 +25943,7 @@
         <v>1021</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F56"/>
     </row>
@@ -25961,7 +25961,7 @@
         <v>1024</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F57"/>
     </row>
@@ -25979,7 +25979,7 @@
         <v>1027</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F58"/>
     </row>
@@ -25997,7 +25997,7 @@
         <v>1030</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F59"/>
     </row>
@@ -26015,7 +26015,7 @@
         <v>1033</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F60"/>
     </row>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -921,13 +921,13 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
@@ -17744,7 +17744,7 @@
         <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
         <v>296</v>
@@ -17755,7 +17755,7 @@
         <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C76" t="s">
         <v>297</v>
@@ -17766,7 +17766,7 @@
         <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
         <v>298</v>
@@ -17777,18 +17777,18 @@
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
         <v>298</v>
@@ -17799,10 +17799,10 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81">
@@ -17810,10 +17810,10 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82">
@@ -17821,10 +17821,10 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
@@ -17832,10 +17832,10 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84">
@@ -17843,10 +17843,10 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85">
@@ -17854,7 +17854,7 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
         <v>298</v>
@@ -17865,21 +17865,21 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88">
@@ -17887,10 +17887,10 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89">
@@ -17898,10 +17898,10 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90">
@@ -17909,43 +17909,43 @@
         <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94">
@@ -17953,43 +17953,43 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98">
@@ -17997,10 +17997,10 @@
         <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99">
@@ -18008,10 +18008,10 @@
         <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100">
@@ -18019,43 +18019,43 @@
         <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104">
@@ -18063,43 +18063,43 @@
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C107" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108">
@@ -18107,10 +18107,10 @@
         <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109">
@@ -18118,10 +18118,10 @@
         <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110">
@@ -18129,43 +18129,43 @@
         <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114">
@@ -18173,43 +18173,43 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118">
@@ -18217,51 +18217,51 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C122" t="s">
         <v>308</v>
@@ -18269,13 +18269,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124">
@@ -18283,18 +18283,18 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
@@ -18302,24 +18302,24 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128">
@@ -18327,43 +18327,43 @@
         <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132">
@@ -18371,75 +18371,42 @@
         <v>62</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C133" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B134" t="s">
         <v>251</v>
       </c>
       <c r="C134" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
         <v>253</v>
       </c>
       <c r="C135" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>63</v>
-      </c>
-      <c r="B136" t="s">
-        <v>246</v>
-      </c>
-      <c r="C136" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>63</v>
-      </c>
-      <c r="B137" t="s">
-        <v>251</v>
-      </c>
-      <c r="C137" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>63</v>
-      </c>
-      <c r="B138" t="s">
-        <v>253</v>
-      </c>
-      <c r="C138" t="s">
         <v>258</v>
       </c>
     </row>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">DatasetOrginizationCode</t>
   </si>
   <si>
-    <t xml:space="preserve">ProjectName</t>
+    <t xml:space="preserve">projectName</t>
   </si>
   <si>
     <t xml:space="preserve">The name assigned by the Organization (project leader or principal investigator) to the project.</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">USFS PacFish/InFish Biological Opinion Monitoring Program</t>
   </si>
   <si>
-    <t xml:space="preserve">ProjectCode</t>
+    <t xml:space="preserve">projectCode</t>
   </si>
   <si>
     <t xml:space="preserve">PIBO, AIM, USFS, NRSA</t>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -174,7 +174,7 @@
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">The geographic latitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+    <t xml:space="preserve">The geographic latitude (WGS84) of the geographic center of a location.</t>
   </si>
   <si>
     <t xml:space="preserve">25.848932980000001</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">The geographic longitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+    <t xml:space="preserve">The geographic longitude (WGS84) of the geographic center of a location.</t>
   </si>
   <si>
     <t xml:space="preserve">-163.74230800000001</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">measurementID</t>
   </si>
   <si>
-    <t xml:space="preserve">Global unique identifier assigned to the variable/measurementType.</t>
+    <t xml:space="preserve">Global unique identifier assigned to the variable or measurementType.</t>
   </si>
   <si>
     <t xml:space="preserve">measurementMethod</t>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="1649">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
   </si>
   <si>
-    <t xml:space="preserve">beaverImpact</t>
+    <t xml:space="preserve">beaverImpactFlow</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver impact the flow of the reach.</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">PRTCL</t>
   </si>
   <si>
-    <t xml:space="preserve">VALXSITE</t>
+    <t xml:space="preserve">PROTOCOL</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -4319,6 +4319,9 @@
   </si>
   <si>
     <t xml:space="preserve">Site class (NAWQA, PROB, HAND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALXSITE</t>
   </si>
   <si>
     <t xml:space="preserve">X-site sampling status sub-category</t>
@@ -9022,14 +9025,14 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>1429</v>
       </c>
       <c r="B190"/>
       <c r="C190" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D190" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E190"/>
       <c r="F190" t="n">
@@ -9039,14 +9042,14 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D191" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E191"/>
       <c r="F191" t="n">
@@ -9060,10 +9063,10 @@
       </c>
       <c r="B192"/>
       <c r="C192" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D192" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E192"/>
       <c r="F192" t="n">
@@ -9077,10 +9080,10 @@
       </c>
       <c r="B193"/>
       <c r="C193" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D193" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E193"/>
       <c r="F193" t="n">
@@ -9094,10 +9097,10 @@
       </c>
       <c r="B194"/>
       <c r="C194" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D194" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E194"/>
       <c r="F194" t="n">
@@ -9111,10 +9114,10 @@
       </c>
       <c r="B195"/>
       <c r="C195" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D195" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E195"/>
       <c r="F195" t="n">
@@ -9124,14 +9127,14 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B196"/>
       <c r="C196" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D196" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E196"/>
       <c r="F196" t="n">
@@ -9141,14 +9144,14 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B197"/>
       <c r="C197" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D197" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E197"/>
       <c r="F197" t="n">
@@ -9158,14 +9161,14 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B198"/>
       <c r="C198" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D198" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E198"/>
       <c r="F198" t="n">
@@ -9179,10 +9182,10 @@
       </c>
       <c r="B199"/>
       <c r="C199" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D199" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E199"/>
       <c r="F199" t="n">
@@ -9218,7 +9221,7 @@
         <v>1026</v>
       </c>
       <c r="E1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="2">
@@ -9316,14 +9319,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>1429</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E8" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="9">
@@ -9331,14 +9334,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E9" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="10">
@@ -9350,10 +9353,10 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E10" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="11">
@@ -9365,10 +9368,10 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E11" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="12">
@@ -9380,10 +9383,10 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E12" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="13">
@@ -9395,10 +9398,10 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E13" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="14">
@@ -9406,14 +9409,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E14" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="15">
@@ -9421,14 +9424,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E15" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="16">
@@ -9436,14 +9439,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E16" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="17">
@@ -9455,10 +9458,10 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E17" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="18">
@@ -12518,7 +12521,7 @@
         <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="2">
@@ -12526,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="3">
@@ -12534,7 +12537,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="4">
@@ -12542,7 +12545,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="5">
@@ -12550,7 +12553,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="6">
@@ -12558,7 +12561,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="7">
@@ -12566,7 +12569,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="8">
@@ -12574,7 +12577,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="9">
@@ -12582,7 +12585,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="10">
@@ -12590,7 +12593,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="11">
@@ -12598,7 +12601,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="12">
@@ -12606,7 +12609,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="13">
@@ -12620,7 +12623,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="15">
@@ -12634,7 +12637,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="17">
@@ -12642,7 +12645,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="18">
@@ -12650,7 +12653,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="19">
@@ -12658,7 +12661,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20">
@@ -12666,7 +12669,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="21">
@@ -12674,7 +12677,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="22">
@@ -12682,7 +12685,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="23">
@@ -12690,7 +12693,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="24">
@@ -12698,7 +12701,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="25">
@@ -12706,7 +12709,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="26">
@@ -12714,7 +12717,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="27">
@@ -12722,7 +12725,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="28">
@@ -12730,7 +12733,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="29">
@@ -12738,7 +12741,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="30">
@@ -12746,7 +12749,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="31">
@@ -12754,7 +12757,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="32">
@@ -12762,7 +12765,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="33">
@@ -12770,7 +12773,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="34">
@@ -12778,7 +12781,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="35">
@@ -12786,7 +12789,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="36">
@@ -12794,7 +12797,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="37">
@@ -12802,7 +12805,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="38">
@@ -12810,7 +12813,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="39">
@@ -12818,7 +12821,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="40">
@@ -12826,7 +12829,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="41">
@@ -12834,7 +12837,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="42">
@@ -12848,7 +12851,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="44">
@@ -12856,7 +12859,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="45">
@@ -12864,7 +12867,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="46">
@@ -12872,7 +12875,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="47">
@@ -12880,7 +12883,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="48">
@@ -12888,7 +12891,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="49">
@@ -12896,7 +12899,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="50">
@@ -12904,7 +12907,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="51">
@@ -12912,7 +12915,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="52">
@@ -12920,7 +12923,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="53">
@@ -12928,7 +12931,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="54">
@@ -12936,7 +12939,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="55">
@@ -12944,7 +12947,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="56">
@@ -12952,7 +12955,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="57">
@@ -12960,7 +12963,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="58">
@@ -12968,7 +12971,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="59">
@@ -12976,7 +12979,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="60">
@@ -12984,7 +12987,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="61">
@@ -12992,7 +12995,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="62">
@@ -13000,7 +13003,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63">
@@ -13008,7 +13011,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="64">
@@ -13016,7 +13019,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="65">
@@ -13024,7 +13027,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="66">
@@ -13032,7 +13035,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="67">
@@ -13040,7 +13043,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="68">
@@ -13048,7 +13051,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="69">
@@ -13056,7 +13059,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="70">
@@ -13064,7 +13067,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="71">
@@ -13072,7 +13075,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="72">
@@ -13080,7 +13083,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="73">
@@ -13088,7 +13091,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="74">
@@ -13096,7 +13099,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="75">
@@ -13104,7 +13107,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="76">
@@ -13112,7 +13115,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="77">
@@ -13120,7 +13123,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="78">
@@ -13128,7 +13131,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="79">
@@ -13136,7 +13139,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="80">
@@ -13144,7 +13147,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="81">
@@ -13152,7 +13155,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="82">
@@ -13160,7 +13163,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="83">
@@ -13168,7 +13171,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="84">
@@ -13176,7 +13179,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="85">
@@ -13184,7 +13187,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="86">
@@ -13192,7 +13195,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="87">
@@ -13200,7 +13203,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="88">
@@ -13208,7 +13211,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="89">
@@ -13216,7 +13219,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -13238,25 +13241,25 @@
         <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D1" t="s">
         <v>1025</v>
       </c>
       <c r="E1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="F1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2">
@@ -13264,16 +13267,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F2" t="s">
         <v>126</v>
@@ -13288,16 +13291,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C3" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D3" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E3" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="F3" t="s">
         <v>126</v>
@@ -13312,16 +13315,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C4" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D4" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E4" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F4" t="s">
         <v>126</v>
@@ -13336,16 +13339,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C5" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D5" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E5" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F5" t="s">
         <v>126</v>
@@ -13360,16 +13363,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C6" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D6" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E6" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -13390,7 +13393,7 @@
         <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E7" t="s">
         <v>222</v>
@@ -13428,16 +13431,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C9" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D9" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E9" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
@@ -13452,16 +13455,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C10" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D10" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E10" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
@@ -13476,16 +13479,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C11" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D11" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E11" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F11" t="s">
         <v>126</v>
@@ -13500,16 +13503,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C12" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D12" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E12" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F12" t="s">
         <v>126</v>
@@ -13524,16 +13527,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C13" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D13" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E13" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="F13" t="s">
         <v>126</v>
@@ -13548,16 +13551,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E14" t="s">
         <v>1558</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1557</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
@@ -13572,16 +13575,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C15" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D15" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E15" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -13602,7 +13605,7 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E16" t="s">
         <v>227</v>
@@ -13620,13 +13623,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C17" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D17" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
@@ -13645,10 +13648,10 @@
         <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D18" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E18" t="s">
         <v>227</v>
@@ -13666,10 +13669,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C19" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -13686,10 +13689,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C20" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -13709,7 +13712,7 @@
         <v>1025</v>
       </c>
       <c r="C21" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -13726,16 +13729,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C22" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D22" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E22" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -13770,16 +13773,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C24" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D24" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E24" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F24" t="s">
         <v>126</v>
@@ -13794,16 +13797,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C25" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D25" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E25" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F25" t="s">
         <v>126</v>
@@ -13821,13 +13824,13 @@
         <v>318</v>
       </c>
       <c r="C26" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D26" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E26" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F26" t="s">
         <v>126</v>
@@ -13848,7 +13851,7 @@
         <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E27" t="s">
         <v>233</v>
@@ -13869,7 +13872,7 @@
         <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -13909,7 +13912,7 @@
         <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -13926,13 +13929,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C31" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D31" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
@@ -13942,7 +13945,7 @@
         <v>126</v>
       </c>
       <c r="H31" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="32">
@@ -13950,13 +13953,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C32" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D32" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
@@ -13966,7 +13969,7 @@
         <v>126</v>
       </c>
       <c r="H32" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -13988,25 +13991,25 @@
         <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D1" t="s">
         <v>1025</v>
       </c>
       <c r="E1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="F1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="2">
@@ -14014,10 +14017,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -14034,13 +14037,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C3" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D3" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -14056,13 +14059,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D4" t="s">
         <v>1588</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1587</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -14078,13 +14081,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C5" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D5" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -14100,13 +14103,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C6" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D6" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -14122,13 +14125,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C7" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D7" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -14144,13 +14147,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C8" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D8" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -14166,20 +14169,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C9" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D9" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
         <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H9"/>
     </row>
@@ -14208,20 +14211,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C11" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D11" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
         <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H11"/>
     </row>
@@ -14230,13 +14233,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C12" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D12" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -14252,13 +14255,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C13" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D13" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
@@ -14274,13 +14277,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C14" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D14" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -14296,13 +14299,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C15" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D15" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
@@ -14318,13 +14321,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C16" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D16" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
@@ -14340,13 +14343,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C17" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D17" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
@@ -14362,20 +14365,20 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C18" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D18" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
         <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H18"/>
     </row>
@@ -14384,20 +14387,20 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C19" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D19" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
         <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H19"/>
     </row>
@@ -14406,13 +14409,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C20" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D20" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E20" t="s">
         <v>546</v>
@@ -14430,13 +14433,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C21" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D21" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
@@ -14452,13 +14455,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C22" t="s">
         <v>1623</v>
       </c>
-      <c r="C22" t="s">
-        <v>1622</v>
-      </c>
       <c r="D22" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
@@ -14474,13 +14477,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C23" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D23" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
@@ -14496,13 +14499,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C24" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D24" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
@@ -14518,13 +14521,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C25" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D25" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
@@ -14540,13 +14543,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C26" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D26" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
@@ -14562,13 +14565,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C27" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D27" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
@@ -14584,20 +14587,20 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C28" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D28" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
         <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H28"/>
     </row>
@@ -14609,7 +14612,7 @@
         <v>1025</v>
       </c>
       <c r="C29" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -14626,13 +14629,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C30" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D30" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
@@ -14648,13 +14651,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C31" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D31" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
@@ -14670,13 +14673,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C32" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D32" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
@@ -14712,13 +14715,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C34" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D34" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
@@ -14734,20 +14737,20 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C35" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D35" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
         <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H35"/>
     </row>
@@ -14756,13 +14759,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C36" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D36" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
@@ -14781,7 +14784,7 @@
         <v>264</v>
       </c>
       <c r="C37" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -14821,7 +14824,7 @@
         <v>328</v>
       </c>
       <c r="C39" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -17533,7 +17533,9 @@
       <c r="A62" t="n">
         <v>66</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
       <c r="C62" t="s">
         <v>325</v>
       </c>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -1008,6 +1008,9 @@
     <t xml:space="preserve">DSGN_TYP</t>
   </si>
   <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
     <t xml:space="preserve">survey_year</t>
   </si>
   <si>
@@ -1105,9 +1108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Longitude of the reach midpoint in NAD 83 (units: decimal degrees)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
   </si>
   <si>
     <t xml:space="preserve">Project associated with data collection</t>
@@ -5620,7 +5620,7 @@
         <v>1029</v>
       </c>
       <c r="F1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
         <v>1030</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B195"/>
       <c r="C195" t="s">
@@ -9212,7 +9212,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>1025</v>
@@ -9397,7 +9397,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
@@ -12521,7 +12521,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>1446</v>
@@ -13241,7 +13241,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>1529</v>
@@ -13912,7 +13912,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
         <v>1437</v>
@@ -13991,7 +13991,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>1529</v>
@@ -14824,7 +14824,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
         <v>1437</v>
@@ -17547,7 +17547,9 @@
         <v>326</v>
       </c>
       <c r="F62"/>
-      <c r="G62"/>
+      <c r="G62" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -17560,14 +17562,14 @@
         <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -17586,45 +17588,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
@@ -17646,13 +17648,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>126</v>
@@ -17676,13 +17678,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
         <v>126</v>
@@ -17706,13 +17708,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
@@ -17736,19 +17738,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -17764,13 +17766,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
         <v>126</v>
@@ -17794,19 +17796,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
         <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
         <v>125</v>
@@ -17824,19 +17826,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D9" t="s">
         <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
@@ -17854,19 +17856,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
         <v>358</v>
-      </c>
-      <c r="C10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" t="s">
-        <v>357</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
@@ -17884,10 +17886,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
         <v>361</v>
@@ -17914,7 +17916,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>362</v>
@@ -17944,7 +17946,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>366</v>
@@ -17974,7 +17976,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>368</v>
@@ -18004,7 +18006,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>370</v>
@@ -18034,7 +18036,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
         <v>372</v>
@@ -18064,7 +18066,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B17" t="s">
         <v>374</v>
@@ -18094,7 +18096,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
         <v>127</v>
@@ -18124,7 +18126,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
         <v>377</v>
@@ -18154,7 +18156,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>379</v>
@@ -18184,7 +18186,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
         <v>381</v>
@@ -18214,7 +18216,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
         <v>383</v>
@@ -18244,7 +18246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s">
         <v>385</v>
@@ -18274,7 +18276,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
         <v>387</v>
@@ -18286,7 +18288,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F24" t="s">
         <v>126</v>
@@ -18304,7 +18306,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
         <v>389</v>
@@ -18316,7 +18318,7 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F25" t="s">
         <v>126</v>
@@ -18334,7 +18336,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B26" t="s">
         <v>391</v>
@@ -18346,7 +18348,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F26" t="s">
         <v>126</v>
@@ -18364,7 +18366,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
         <v>393</v>
@@ -18376,7 +18378,7 @@
         <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F27" t="s">
         <v>126</v>
@@ -18394,7 +18396,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
         <v>395</v>
@@ -18424,7 +18426,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
         <v>397</v>
@@ -20398,7 +20400,7 @@
         <v>126</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F95" t="s">
         <v>126</v>
@@ -21297,7 +21299,7 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -23651,13 +23653,13 @@
         <v>856</v>
       </c>
       <c r="D1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E1" t="s">
         <v>857</v>
       </c>
       <c r="F1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -23728,7 +23730,7 @@
         <v>865</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
@@ -23748,7 +23750,7 @@
         <v>866</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
         <v>867</v>

--- a/Tables/PropertyRegistry.xlsx
+++ b/Tables/PropertyRegistry.xlsx
@@ -360,7 +360,7 @@
     <t xml:space="preserve">maximumPossibleValue</t>
   </si>
   <si>
-    <t xml:space="preserve">ControlledVocabulary</t>
+    <t xml:space="preserve">MeasuremeorFact</t>
   </si>
   <si>
     <t xml:space="preserve">Sin</t>
